--- a/owlcms/src/main/resources/agegroups/USAW-AgeGroups_en.xlsx
+++ b/owlcms/src/main/resources/agegroups/USAW-AgeGroups_en.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/scottgonzalez/Projects/Misc/owlcms4/owlcms/src/main/resources/agegroups/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lamyj\git\owlcms4\owlcms\src\main\resources\agegroups\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BCFDA96-3FF8-6548-9E8C-4358094564EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{687F7B27-C120-44A3-9372-9CF8F48B7D22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1460" yWindow="500" windowWidth="26540" windowHeight="21420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2640" yWindow="2925" windowWidth="23985" windowHeight="11295" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AgeGroups" sheetId="1" r:id="rId1"/>
@@ -24,8 +24,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -36,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="56">
   <si>
     <t>code</t>
   </si>
@@ -132,9 +130,6 @@
   </si>
   <si>
     <t>JR</t>
-  </si>
-  <si>
-    <t>IWF</t>
   </si>
   <si>
     <t>SR</t>
@@ -548,14 +543,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C47" sqref="C47"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="23.5" customWidth="1"/>
+    <col min="2" max="2" width="23.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -595,12 +592,12 @@
       <c r="U1" s="3"/>
       <c r="V1" s="3"/>
     </row>
-    <row r="2" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>9</v>
@@ -654,12 +651,12 @@
       <c r="V2" s="1"/>
       <c r="W2" s="1"/>
     </row>
-    <row r="3" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>9</v>
@@ -713,12 +710,12 @@
       <c r="V3" s="1"/>
       <c r="W3" s="1"/>
     </row>
-    <row r="4" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>9</v>
@@ -771,12 +768,12 @@
       <c r="V4" s="1"/>
       <c r="W4" s="1"/>
     </row>
-    <row r="5" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -829,12 +826,12 @@
       <c r="V5" s="1"/>
       <c r="W5" s="1"/>
     </row>
-    <row r="6" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>9</v>
@@ -887,12 +884,12 @@
       <c r="V6" s="1"/>
       <c r="W6" s="1"/>
     </row>
-    <row r="7" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>9</v>
@@ -945,12 +942,12 @@
       <c r="V7" s="1"/>
       <c r="W7" s="1"/>
     </row>
-    <row r="8" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>17</v>
@@ -1003,12 +1000,12 @@
       <c r="V8" s="1"/>
       <c r="W8" s="1"/>
     </row>
-    <row r="9" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>17</v>
@@ -1061,12 +1058,12 @@
       <c r="V9" s="1"/>
       <c r="W9" s="1"/>
     </row>
-    <row r="10" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>17</v>
@@ -1119,12 +1116,12 @@
       <c r="V10" s="1"/>
       <c r="W10" s="1"/>
     </row>
-    <row r="11" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>17</v>
@@ -1177,12 +1174,12 @@
       <c r="V11" s="1"/>
       <c r="W11" s="1"/>
     </row>
-    <row r="12" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>17</v>
@@ -1235,12 +1232,12 @@
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
     </row>
-    <row r="13" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>17</v>
@@ -1293,12 +1290,12 @@
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
     </row>
-    <row r="14" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>17</v>
@@ -1351,12 +1348,12 @@
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
     </row>
-    <row r="15" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>17</v>
@@ -1409,12 +1406,12 @@
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
     </row>
-    <row r="16" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>17</v>
@@ -1467,12 +1464,12 @@
       <c r="V16" s="1"/>
       <c r="W16" s="1"/>
     </row>
-    <row r="17" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>17</v>
@@ -1525,12 +1522,12 @@
       <c r="V17" s="1"/>
       <c r="W17" s="1"/>
     </row>
-    <row r="18" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>17</v>
@@ -1583,12 +1580,12 @@
       <c r="V18" s="1"/>
       <c r="W18" s="1"/>
     </row>
-    <row r="19" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>17</v>
@@ -1641,12 +1638,12 @@
       <c r="V19" s="1"/>
       <c r="W19" s="1"/>
     </row>
-    <row r="20" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>17</v>
@@ -1699,12 +1696,12 @@
       <c r="V20" s="1"/>
       <c r="W20" s="1"/>
     </row>
-    <row r="21" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>17</v>
@@ -1757,15 +1754,15 @@
       <c r="V21" s="1"/>
       <c r="W21" s="1"/>
     </row>
-    <row r="22" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>10</v>
@@ -1815,15 +1812,15 @@
       <c r="V22" s="1"/>
       <c r="W22" s="1"/>
     </row>
-    <row r="23" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>10</v>
@@ -1873,15 +1870,15 @@
       <c r="V23" s="1"/>
       <c r="W23" s="1"/>
     </row>
-    <row r="24" spans="1:23" ht="15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>10</v>
@@ -1931,12 +1928,12 @@
       <c r="V24" s="1"/>
       <c r="W24" s="1"/>
     </row>
-    <row r="25" spans="1:23" ht="15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>52</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>9</v>
@@ -1989,18 +1986,18 @@
       <c r="V25" s="1"/>
       <c r="W25" s="1"/>
     </row>
-    <row r="26" spans="1:23" ht="15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E26" s="4">
         <v>0</v>
@@ -2048,18 +2045,18 @@
       <c r="U26" s="1"/>
       <c r="V26" s="1"/>
     </row>
-    <row r="27" spans="1:23" ht="15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E27" s="4">
         <v>0</v>
@@ -2107,18 +2104,18 @@
       <c r="U27" s="1"/>
       <c r="V27" s="1"/>
     </row>
-    <row r="28" spans="1:23" ht="15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E28" s="4">
         <v>14</v>
@@ -2164,18 +2161,18 @@
       <c r="U28" s="1"/>
       <c r="V28" s="1"/>
     </row>
-    <row r="29" spans="1:23" ht="15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E29" s="4">
         <v>16</v>
@@ -2221,18 +2218,18 @@
       </c>
       <c r="V29" s="1"/>
     </row>
-    <row r="30" spans="1:23" ht="15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E30" s="4">
         <v>18</v>
@@ -2278,18 +2275,18 @@
         <v>999</v>
       </c>
     </row>
-    <row r="31" spans="1:23" ht="15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E31" s="4">
         <v>18</v>
@@ -2335,18 +2332,18 @@
         <v>999</v>
       </c>
     </row>
-    <row r="32" spans="1:23" ht="15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E32" s="4">
         <v>35</v>
@@ -2392,18 +2389,18 @@
         <v>999</v>
       </c>
     </row>
-    <row r="33" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E33" s="4">
         <v>40</v>
@@ -2449,18 +2446,18 @@
         <v>999</v>
       </c>
     </row>
-    <row r="34" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E34" s="4">
         <v>45</v>
@@ -2506,18 +2503,18 @@
         <v>999</v>
       </c>
     </row>
-    <row r="35" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E35" s="4">
         <v>50</v>
@@ -2563,18 +2560,18 @@
         <v>999</v>
       </c>
     </row>
-    <row r="36" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E36" s="4">
         <v>55</v>
@@ -2620,18 +2617,18 @@
         <v>999</v>
       </c>
     </row>
-    <row r="37" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E37" s="4">
         <v>60</v>
@@ -2677,18 +2674,18 @@
         <v>999</v>
       </c>
     </row>
-    <row r="38" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E38" s="4">
         <v>65</v>
@@ -2734,18 +2731,18 @@
         <v>999</v>
       </c>
     </row>
-    <row r="39" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E39" s="4">
         <v>70</v>
@@ -2791,18 +2788,18 @@
         <v>999</v>
       </c>
     </row>
-    <row r="40" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E40" s="4">
         <v>75</v>
@@ -2848,18 +2845,18 @@
         <v>999</v>
       </c>
     </row>
-    <row r="41" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E41" s="4">
         <v>80</v>
@@ -2905,18 +2902,18 @@
         <v>999</v>
       </c>
     </row>
-    <row r="42" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E42" s="4">
         <v>85</v>
@@ -2962,18 +2959,18 @@
         <v>999</v>
       </c>
     </row>
-    <row r="43" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E43" s="4">
         <v>90</v>
@@ -3019,18 +3016,18 @@
         <v>999</v>
       </c>
     </row>
-    <row r="44" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E44" s="4">
         <v>95</v>
@@ -3076,18 +3073,18 @@
         <v>999</v>
       </c>
     </row>
-    <row r="45" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E45" s="4">
         <v>100</v>
@@ -3133,18 +3130,18 @@
         <v>999</v>
       </c>
     </row>
-    <row r="46" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E46" s="4">
         <v>15</v>
@@ -3190,18 +3187,18 @@
         <v>999</v>
       </c>
     </row>
-    <row r="47" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E47" s="4">
         <v>15</v>
@@ -3247,18 +3244,18 @@
         <v>999</v>
       </c>
     </row>
-    <row r="48" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C48" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B48" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C48" s="1" t="s">
+      <c r="D48" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="E48" s="4">
         <v>0</v>
@@ -3304,18 +3301,18 @@
         <v>999</v>
       </c>
     </row>
-    <row r="49" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B49" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>52</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E49" s="4">
         <v>0</v>

--- a/owlcms/src/main/resources/agegroups/USAW-AgeGroups_en.xlsx
+++ b/owlcms/src/main/resources/agegroups/USAW-AgeGroups_en.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lamyj\git\owlcms4\owlcms\src\main\resources\agegroups\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/scottgonzalez/Projects/Misc/owlcms4/owlcms/src/main/resources/agegroups/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{687F7B27-C120-44A3-9372-9CF8F48B7D22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BCFDA96-3FF8-6548-9E8C-4358094564EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="2925" windowWidth="23985" windowHeight="11295" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1460" yWindow="500" windowWidth="26540" windowHeight="21420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AgeGroups" sheetId="1" r:id="rId1"/>
@@ -24,6 +24,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="57">
   <si>
     <t>code</t>
   </si>
@@ -130,6 +132,9 @@
   </si>
   <si>
     <t>JR</t>
+  </si>
+  <si>
+    <t>IWF</t>
   </si>
   <si>
     <t>SR</t>
@@ -543,16 +548,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C47" sqref="C47"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="23.42578125" customWidth="1"/>
+    <col min="2" max="2" width="23.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -592,12 +595,12 @@
       <c r="U1" s="3"/>
       <c r="V1" s="3"/>
     </row>
-    <row r="2" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>9</v>
@@ -651,12 +654,12 @@
       <c r="V2" s="1"/>
       <c r="W2" s="1"/>
     </row>
-    <row r="3" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>9</v>
@@ -710,12 +713,12 @@
       <c r="V3" s="1"/>
       <c r="W3" s="1"/>
     </row>
-    <row r="4" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>9</v>
@@ -768,12 +771,12 @@
       <c r="V4" s="1"/>
       <c r="W4" s="1"/>
     </row>
-    <row r="5" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -826,12 +829,12 @@
       <c r="V5" s="1"/>
       <c r="W5" s="1"/>
     </row>
-    <row r="6" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>9</v>
@@ -884,12 +887,12 @@
       <c r="V6" s="1"/>
       <c r="W6" s="1"/>
     </row>
-    <row r="7" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>9</v>
@@ -942,12 +945,12 @@
       <c r="V7" s="1"/>
       <c r="W7" s="1"/>
     </row>
-    <row r="8" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>17</v>
@@ -1000,12 +1003,12 @@
       <c r="V8" s="1"/>
       <c r="W8" s="1"/>
     </row>
-    <row r="9" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>17</v>
@@ -1058,12 +1061,12 @@
       <c r="V9" s="1"/>
       <c r="W9" s="1"/>
     </row>
-    <row r="10" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>17</v>
@@ -1116,12 +1119,12 @@
       <c r="V10" s="1"/>
       <c r="W10" s="1"/>
     </row>
-    <row r="11" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>17</v>
@@ -1174,12 +1177,12 @@
       <c r="V11" s="1"/>
       <c r="W11" s="1"/>
     </row>
-    <row r="12" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>17</v>
@@ -1232,12 +1235,12 @@
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
     </row>
-    <row r="13" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>17</v>
@@ -1290,12 +1293,12 @@
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
     </row>
-    <row r="14" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>17</v>
@@ -1348,12 +1351,12 @@
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
     </row>
-    <row r="15" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>17</v>
@@ -1406,12 +1409,12 @@
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
     </row>
-    <row r="16" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>17</v>
@@ -1464,12 +1467,12 @@
       <c r="V16" s="1"/>
       <c r="W16" s="1"/>
     </row>
-    <row r="17" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>17</v>
@@ -1522,12 +1525,12 @@
       <c r="V17" s="1"/>
       <c r="W17" s="1"/>
     </row>
-    <row r="18" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>17</v>
@@ -1580,12 +1583,12 @@
       <c r="V18" s="1"/>
       <c r="W18" s="1"/>
     </row>
-    <row r="19" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>17</v>
@@ -1638,12 +1641,12 @@
       <c r="V19" s="1"/>
       <c r="W19" s="1"/>
     </row>
-    <row r="20" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>17</v>
@@ -1696,12 +1699,12 @@
       <c r="V20" s="1"/>
       <c r="W20" s="1"/>
     </row>
-    <row r="21" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>17</v>
@@ -1754,15 +1757,15 @@
       <c r="V21" s="1"/>
       <c r="W21" s="1"/>
     </row>
-    <row r="22" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>10</v>
@@ -1812,15 +1815,15 @@
       <c r="V22" s="1"/>
       <c r="W22" s="1"/>
     </row>
-    <row r="23" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>10</v>
@@ -1870,15 +1873,15 @@
       <c r="V23" s="1"/>
       <c r="W23" s="1"/>
     </row>
-    <row r="24" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>10</v>
@@ -1928,12 +1931,12 @@
       <c r="V24" s="1"/>
       <c r="W24" s="1"/>
     </row>
-    <row r="25" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>9</v>
@@ -1986,18 +1989,18 @@
       <c r="V25" s="1"/>
       <c r="W25" s="1"/>
     </row>
-    <row r="26" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E26" s="4">
         <v>0</v>
@@ -2045,18 +2048,18 @@
       <c r="U26" s="1"/>
       <c r="V26" s="1"/>
     </row>
-    <row r="27" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E27" s="4">
         <v>0</v>
@@ -2104,18 +2107,18 @@
       <c r="U27" s="1"/>
       <c r="V27" s="1"/>
     </row>
-    <row r="28" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E28" s="4">
         <v>14</v>
@@ -2161,18 +2164,18 @@
       <c r="U28" s="1"/>
       <c r="V28" s="1"/>
     </row>
-    <row r="29" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E29" s="4">
         <v>16</v>
@@ -2218,18 +2221,18 @@
       </c>
       <c r="V29" s="1"/>
     </row>
-    <row r="30" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E30" s="4">
         <v>18</v>
@@ -2275,18 +2278,18 @@
         <v>999</v>
       </c>
     </row>
-    <row r="31" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E31" s="4">
         <v>18</v>
@@ -2332,18 +2335,18 @@
         <v>999</v>
       </c>
     </row>
-    <row r="32" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E32" s="4">
         <v>35</v>
@@ -2389,18 +2392,18 @@
         <v>999</v>
       </c>
     </row>
-    <row r="33" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:22" ht="15" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E33" s="4">
         <v>40</v>
@@ -2446,18 +2449,18 @@
         <v>999</v>
       </c>
     </row>
-    <row r="34" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:22" ht="15" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E34" s="4">
         <v>45</v>
@@ -2503,18 +2506,18 @@
         <v>999</v>
       </c>
     </row>
-    <row r="35" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:22" ht="15" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E35" s="4">
         <v>50</v>
@@ -2560,18 +2563,18 @@
         <v>999</v>
       </c>
     </row>
-    <row r="36" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:22" ht="15" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E36" s="4">
         <v>55</v>
@@ -2617,18 +2620,18 @@
         <v>999</v>
       </c>
     </row>
-    <row r="37" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:22" ht="15" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E37" s="4">
         <v>60</v>
@@ -2674,18 +2677,18 @@
         <v>999</v>
       </c>
     </row>
-    <row r="38" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:22" ht="15" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E38" s="4">
         <v>65</v>
@@ -2731,18 +2734,18 @@
         <v>999</v>
       </c>
     </row>
-    <row r="39" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:22" ht="15" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E39" s="4">
         <v>70</v>
@@ -2788,18 +2791,18 @@
         <v>999</v>
       </c>
     </row>
-    <row r="40" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:22" ht="15" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E40" s="4">
         <v>75</v>
@@ -2845,18 +2848,18 @@
         <v>999</v>
       </c>
     </row>
-    <row r="41" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:22" ht="15" x14ac:dyDescent="0.2">
       <c r="A41" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E41" s="4">
         <v>80</v>
@@ -2902,18 +2905,18 @@
         <v>999</v>
       </c>
     </row>
-    <row r="42" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:22" ht="15" x14ac:dyDescent="0.2">
       <c r="A42" s="6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E42" s="4">
         <v>85</v>
@@ -2959,18 +2962,18 @@
         <v>999</v>
       </c>
     </row>
-    <row r="43" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:22" ht="15" x14ac:dyDescent="0.2">
       <c r="A43" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E43" s="4">
         <v>90</v>
@@ -3016,18 +3019,18 @@
         <v>999</v>
       </c>
     </row>
-    <row r="44" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:22" ht="15" x14ac:dyDescent="0.2">
       <c r="A44" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E44" s="4">
         <v>95</v>
@@ -3073,18 +3076,18 @@
         <v>999</v>
       </c>
     </row>
-    <row r="45" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:22" ht="15" x14ac:dyDescent="0.2">
       <c r="A45" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E45" s="4">
         <v>100</v>
@@ -3130,18 +3133,18 @@
         <v>999</v>
       </c>
     </row>
-    <row r="46" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:22" ht="15" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E46" s="4">
         <v>15</v>
@@ -3187,18 +3190,18 @@
         <v>999</v>
       </c>
     </row>
-    <row r="47" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:22" ht="15" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C47" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B47" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="D47" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E47" s="4">
         <v>15</v>
@@ -3244,18 +3247,18 @@
         <v>999</v>
       </c>
     </row>
-    <row r="48" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:22" ht="15" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E48" s="4">
         <v>0</v>
@@ -3301,18 +3304,18 @@
         <v>999</v>
       </c>
     </row>
-    <row r="49" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:22" ht="15" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E49" s="4">
         <v>0</v>
